--- a/Trabalho Fatec Automotive.xlsx
+++ b/Trabalho Fatec Automotive.xlsx
@@ -9,22 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6135" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6135" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Aplicação" sheetId="2" r:id="rId2"/>
-    <sheet name="Betão F" sheetId="4" r:id="rId3"/>
-    <sheet name="Graficos" sheetId="5" r:id="rId4"/>
-    <sheet name="dados" sheetId="6" r:id="rId5"/>
-    <sheet name="Plan7" sheetId="7" r:id="rId6"/>
-    <sheet name="Plan8" sheetId="8" r:id="rId7"/>
-    <sheet name="Plan9" sheetId="9" r:id="rId8"/>
-    <sheet name="Plan10" sheetId="10" r:id="rId9"/>
-    <sheet name="Plan11" sheetId="11" r:id="rId10"/>
-    <sheet name="Plan12" sheetId="12" r:id="rId11"/>
+    <sheet name="Carlão" sheetId="13" r:id="rId3"/>
+    <sheet name="Betão F" sheetId="4" r:id="rId4"/>
+    <sheet name="Graficos" sheetId="5" r:id="rId5"/>
+    <sheet name="dados" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Betao_sal" localSheetId="2">Carlão!$I$8:$I$37</definedName>
     <definedName name="Betao_sal">'Betão F'!$I$8:$I$37</definedName>
     <definedName name="Desc_INSS">dados!$F$7</definedName>
     <definedName name="HD">dados!$B$4</definedName>
@@ -45,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Folha</t>
   </si>
@@ -1384,30 +1380,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B14"/>
@@ -1463,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,6 +2537,1120 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="G4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>42948</v>
+      </c>
+      <c r="C8" s="5">
+        <f>WEEKDAY(B8)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7">
+        <f>IF(OR(C8=1,C8=7),0,IF(D8&gt;8,8,D8))</f>
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <f>IF(C8=1,0,IF(C8=7,0,D8-E8))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f>IF(C8=7,D8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <f>IF(C8=1,D8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8:I37" si="0">IF(C8=1,H8*HD,IF(C8=7,G8*HS,E8*HN+F8*HE))</f>
+        <v>159.19999999999999</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>42949</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:C37" si="1">WEEKDAY(B9)</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <f>IF(OR(C9=1,C9=7),0,IF(D9&gt;8,8,D9))</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F37" si="2">IF(C9=1,0,IF(C9=7,0,D9-E9))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ref="G9:G37" si="3">IF(C9=7,D9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H37" si="4">IF(C9=1,D9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>42950</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" ref="E10:E37" si="5">IF(OR(C10=1,C10=7),0,IF(D10&gt;8,8,D10))</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>99.5</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="24">
+        <f>SUM(I8:I37)</f>
+        <v>4448.9000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>42951</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>59.699999999999996</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="24">
+        <f>SUM(I8:I37)</f>
+        <v>4448.9000000000015</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>42952</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="24">
+        <f>L11-L14-L15</f>
+        <v>3832.7320250000007</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>42953</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="23">
+        <f>L11-L14-(L26*189.59)</f>
+        <v>3390.7510000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>42954</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="23">
+        <f>IF(L11 &gt; Teto_INSS,Teto_INSS * 11%,L11 * VLOOKUP(L11,Tab_INSS,2))</f>
+        <v>489.37900000000019</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>42955</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="23">
+        <f>L13*VLOOKUP(L11,Tab_IRRF,2)-VLOOKUP(L11,Tab_IRRF,3)</f>
+        <v>126.78897500000028</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>42956</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>42957</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>42958</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>42959</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>195.29999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>42960</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>42961</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>42962</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>42963</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>42964</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>42965</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>42966</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>195.29999999999998</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>42967</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>7</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <v>42968</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>42969</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>42970</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>42971</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>42972</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>42973</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>195.29999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>42974</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>7</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>42975</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>7</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>42976</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="7">
+        <v>7</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>42977</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>7</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="0"/>
+        <v>139.29999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="B1:Q1"/>
   </mergeCells>
@@ -2573,7 +3659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2587,11 +3673,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2728,52 +3814,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>